--- a/biology/Médecine/Matteo_Corti/Matteo_Corti.xlsx
+++ b/biology/Médecine/Matteo_Corti/Matteo_Corti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matteo Corti, en latin Curtius, est un médecin italien de la Renaissance, né à Pavie en 1475, mort à Pise en 1564.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Matteo Corti obtint en 1497, à l’université de Pavie, une chaire qu’il occupa pendant dix-huit ans. Il ne la quitta que pour aller remplir celle qu’on lui offrit à Pise en 1515. Il y professa neuf années, et se rendit en 1524, avec le même titre, à l’université de Padoue. La réputation qu’il s’était acquise détermina le pape Clément VII à le choisir pour son archiatre. Corti accompagna ce pontife à Marseille, lorsqu’il y conduisit sa nièce (Catherine de Médicis), pour épouser le dauphin de France. Après la mort du pape, Corti fut nommé professeur de médecine théorique et de poésie à Bologne. En 1541, il devint médecin du grand-duc de Toscane, Cosme Ier, qui lui donna une chaire à Pise, en 1543, pour augmenter l’éclat de cette université. C’est là que Corti mourut vers 1564.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quæstio de phlebotomia in pleuresi, ex Hippocratis et Galeni sententia, contra communem medendi modum, etc., Venise, 1534, in-8°. Il a traité de nouveau ce sujet, mais d’une manière beaucoup plus étendue, sous ce titre : De venæ sectione cum in aliis affectibus, tum vel maxime in pleuritide, liber, Lyon, 1538, in-8°, opuscule souvent réimprimé.
 De curandis febribus ars medica, Venise, 1561, in-8°. Ce mince écrit avait déjà été publié en 1521, avec d’autres sur la même matière, de Guido Guidi et de Louis Mercati.
